--- a/Экономика/1.3. Определение оптовой и отпускной цены ПП.xlsx
+++ b/Экономика/1.3. Определение оптовой и отпускной цены ПП.xlsx
@@ -125,8 +125,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1303020" cy="327077"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -162,6 +162,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -172,7 +173,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1400" i="1">
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -207,7 +208,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -246,7 +247,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -292,7 +293,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -366,8 +367,8 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1303020" cy="327077"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -403,6 +404,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -417,7 +419,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -430,7 +432,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -444,7 +446,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -463,7 +465,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -502,7 +504,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -548,7 +550,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -658,8 +660,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3429000" cy="327077"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -695,6 +697,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -705,7 +708,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1400" i="1">
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -740,7 +743,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -786,7 +789,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -836,7 +839,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -906,7 +909,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>

--- a/Экономика/1.3. Определение оптовой и отпускной цены ПП.xlsx
+++ b/Экономика/1.3. Определение оптовой и отпускной цены ПП.xlsx
@@ -1115,8 +1115,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
